--- a/backend/models/model-file-camp-sankey.xlsx
+++ b/backend/models/model-file-camp-sankey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CAMP-Project\CAMP-Project\backend\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CAMP-Project\CAMP\backend\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1608258-1956-4FBB-A3FD-93771570C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB648080-1982-4FC9-8082-B55BAC93F6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="10980" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23085" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_techniques" sheetId="1" r:id="rId1"/>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="Q8" s="37" t="str">
         <f>app!F12</f>
-        <v>Sector</v>
+        <v>Technology</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -4152,7 +4152,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="34" t="str">
         <f>app!F6</f>
-        <v>Afghanistan</v>
+        <v>Country</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="4" t="s">
@@ -4262,9 +4262,9 @@
       <c r="H14" s="2"/>
       <c r="I14" s="30"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="65" t="str">
+      <c r="K14" s="65">
         <f>app!H6</f>
-        <v>afg</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -13825,14 +13825,14 @@
         <v>629</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="G6" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="66" t="str">
+      <c r="H6" s="66">
         <f>INDEX(Country!B:B,MATCH(F6,Country!A:A,0))</f>
-        <v>afg</v>
+        <v>0</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="47"/>
@@ -14021,7 +14021,7 @@
         <v>722</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="G12" s="60" t="s">
         <v>0</v>
